--- a/Config/basIndexPageConfig.xlsx
+++ b/Config/basIndexPageConfig.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>配置方式</t>
   </si>
@@ -111,7 +111,7 @@
     <t>TestBillingApplicationBoe</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>test_newObsoleteRedLetterInvoiceApplictationBoe.py</t>
@@ -135,13 +135,82 @@
     <t>TestCostEstimateBoe</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>test_newCostEstimateBoe.py</t>
   </si>
   <si>
     <t>TestNewCostEstimateBoe</t>
+  </si>
+  <si>
+    <t>test_newPurchasePrepaymentBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewPurchasePrepaymentBoe</t>
+  </si>
+  <si>
+    <t>test_newPurchasingAdvicePaymentBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewPurchasingAdvicePaymentBoe</t>
+  </si>
+  <si>
+    <t>Testcases/basIndexPageTest/accountEasPageTest</t>
+  </si>
+  <si>
+    <t>test_newWithholdingAmortization.py</t>
+  </si>
+  <si>
+    <t>TestNewWithholdingAmortization</t>
+  </si>
+  <si>
+    <t>test_newBusinessLedgerBoe.py</t>
+  </si>
+  <si>
+    <t>test_newBoeTypeGeneralLedgerBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewBoeTypeGeneralLedgerBoe</t>
+  </si>
+  <si>
+    <t>Testcases/basIndexPageTest/salaryEasPageTest</t>
+  </si>
+  <si>
+    <t>test_newAddSalary.py</t>
+  </si>
+  <si>
+    <t>TestNewAddSalary</t>
+  </si>
+  <si>
+    <t>test_newSalaryWageBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewSalaryWageBoe</t>
+  </si>
+  <si>
+    <t>test_newSalaryOtherBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewSalaryOtherBoe</t>
+  </si>
+  <si>
+    <t>Testcases/basIndexPageTest/fundbillEasPageTest</t>
+  </si>
+  <si>
+    <t>test_newBillAllocationBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewBillAllocationBoe</t>
+  </si>
+  <si>
+    <t>test_newDisaccountApplyBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewDisaccountApplyBoe</t>
+  </si>
+  <si>
+    <t>test_newFundAllocationBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewFundAllocationBoe</t>
   </si>
 </sst>
 </file>
@@ -149,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,6 +240,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -179,6 +256,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -189,9 +340,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,41 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,40 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,21 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -327,6 +396,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,49 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,121 +546,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,54 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,10 +622,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -628,6 +647,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -641,145 +710,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1248,7 +1317,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1261,10 +1330,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
@@ -1274,19 +1343,264 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="33" spans="4:8">
-      <c r="D33" s="1"/>
-      <c r="G33"/>
-      <c r="H33"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="34" spans="4:8">
       <c r="D34" s="1"/>
@@ -1433,31 +1747,36 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
+    <row r="63" spans="4:8">
+      <c r="D63" s="1"/>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18 F19 F20 F2:F17">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
+      <formula1>"类名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
       <formula1>"路径"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
-      <formula1>"类名"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"文件名"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
-      <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20">
       <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F6 F7 F3:F4">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Config/basIndexPageConfig.xlsx
+++ b/Config/basIndexPageConfig.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>配置方式</t>
   </si>
@@ -114,18 +114,27 @@
     <t>Y</t>
   </si>
   <si>
+    <t>开票申请单</t>
+  </si>
+  <si>
     <t>test_newObsoleteRedLetterInvoiceApplictationBoe.py</t>
   </si>
   <si>
     <t>TestNewObsoleteRedLetterInvoiceApplictationBoe</t>
   </si>
   <si>
+    <t>作废/红字发票申请单（新）</t>
+  </si>
+  <si>
     <t>test_newIncomeStatementBoe.py</t>
   </si>
   <si>
     <t>TestNewIncomeStatementBoe</t>
   </si>
   <si>
+    <t>收入报账单</t>
+  </si>
+  <si>
     <t>Testcases/basIndexPageTest/purchaseEasPageTest</t>
   </si>
   <si>
@@ -135,24 +144,36 @@
     <t>TestCostEstimateBoe</t>
   </si>
   <si>
+    <t>成本暂估单（旧）</t>
+  </si>
+  <si>
     <t>test_newCostEstimateBoe.py</t>
   </si>
   <si>
     <t>TestNewCostEstimateBoe</t>
   </si>
   <si>
+    <t>成本暂估单（新）</t>
+  </si>
+  <si>
     <t>test_newPurchasePrepaymentBoe.py</t>
   </si>
   <si>
     <t>TestNewPurchasePrepaymentBoe</t>
   </si>
   <si>
+    <t>采购预付单</t>
+  </si>
+  <si>
     <t>test_newPurchasingAdvicePaymentBoe.py</t>
   </si>
   <si>
     <t>TestNewPurchasingAdvicePaymentBoe</t>
   </si>
   <si>
+    <t>采购付款单</t>
+  </si>
+  <si>
     <t>Testcases/basIndexPageTest/accountEasPageTest</t>
   </si>
   <si>
@@ -162,15 +183,27 @@
     <t>TestNewWithholdingAmortization</t>
   </si>
   <si>
+    <t>预提申请单（新）</t>
+  </si>
+  <si>
     <t>test_newBusinessLedgerBoe.py</t>
   </si>
   <si>
+    <t>TestNewBusinessLedgerBoe</t>
+  </si>
+  <si>
+    <t>业务记账单（新）</t>
+  </si>
+  <si>
     <t>test_newBoeTypeGeneralLedgerBoe.py</t>
   </si>
   <si>
     <t>TestNewBoeTypeGeneralLedgerBoe</t>
   </si>
   <si>
+    <t>总账单</t>
+  </si>
+  <si>
     <t>Testcases/basIndexPageTest/salaryEasPageTest</t>
   </si>
   <si>
@@ -180,18 +213,27 @@
     <t>TestNewAddSalary</t>
   </si>
   <si>
+    <t>新增薪酬</t>
+  </si>
+  <si>
     <t>test_newSalaryWageBoe.py</t>
   </si>
   <si>
     <t>TestNewSalaryWageBoe</t>
   </si>
   <si>
+    <t>工资报账单（新）</t>
+  </si>
+  <si>
     <t>test_newSalaryOtherBoe.py</t>
   </si>
   <si>
     <t>TestNewSalaryOtherBoe</t>
   </si>
   <si>
+    <t>五险一金报账单（新）</t>
+  </si>
+  <si>
     <t>Testcases/basIndexPageTest/fundbillEasPageTest</t>
   </si>
   <si>
@@ -201,16 +243,28 @@
     <t>TestNewBillAllocationBoe</t>
   </si>
   <si>
+    <t>票据调拨单（新）</t>
+  </si>
+  <si>
     <t>test_newDisaccountApplyBoe.py</t>
   </si>
   <si>
     <t>TestNewDisaccountApplyBoe</t>
   </si>
   <si>
+    <t>贴现托收申请单（新）</t>
+  </si>
+  <si>
     <t>test_newFundAllocationBoe.py</t>
   </si>
   <si>
     <t>TestNewFundAllocationBoe</t>
+  </si>
+  <si>
+    <t>资金调拨报账单(新)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -218,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -242,9 +296,106 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,75 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,30 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -369,13 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -396,187 +450,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +659,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,26 +703,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,22 +742,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +776,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1254,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1259,7 +1313,9 @@
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
@@ -1270,16 +1326,18 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
@@ -1290,16 +1348,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
@@ -1307,19 +1367,21 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" ht="13" customHeight="1" spans="1:8">
@@ -1327,19 +1389,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
@@ -1347,19 +1411,21 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
@@ -1367,19 +1433,21 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
@@ -1387,19 +1455,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
@@ -1407,19 +1477,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
@@ -1427,19 +1499,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
@@ -1447,19 +1521,21 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
@@ -1467,19 +1543,21 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
@@ -1487,19 +1565,21 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
@@ -1507,19 +1587,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
@@ -1527,19 +1609,21 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
@@ -1547,19 +1631,21 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
@@ -1567,19 +1653,21 @@
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
@@ -1602,6 +1690,11 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="34" spans="4:8">
       <c r="D34" s="1"/>
       <c r="G34"/>
@@ -1754,29 +1847,29 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18 F19 F20 F2:F17">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
+      <formula1>"类名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
-      <formula1>"类名"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
       <formula1>"路径"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
-      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"文件名"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20">
       <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
+      <formula1>"是否执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F19 F20 F2:F14 F16:F18">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Config/basIndexPageConfig.xlsx
+++ b/Config/basIndexPageConfig.xlsx
@@ -272,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -294,6 +294,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,111 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -415,6 +408,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -450,19 +450,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,19 +570,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,139 +618,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,10 +661,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -673,17 +671,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,26 +707,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +729,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,133 +776,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1847,14 +1847,20 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
-      <formula1>"类名"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
       <formula1>"路径"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F19 F20 F3:F18">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
+      <formula1>"是否执行"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"文件名"</formula1>
@@ -1862,14 +1868,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20">
       <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
-      <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F19 F20 F2:F14 F16:F18">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
+      <formula1>"类名"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
